--- a/singles/result_income.xlsx
+++ b/singles/result_income.xlsx
@@ -15,98 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>Есть на портале, нет в базе</t>
-  </si>
-  <si>
-    <t>Есть в базе, нет на портале</t>
-  </si>
-  <si>
-    <t>Весь НДС с Портала</t>
-  </si>
-  <si>
-    <t>Весь НДС из базы</t>
-  </si>
-  <si>
-    <t>Контрагент</t>
-  </si>
-  <si>
-    <t>НДС</t>
-  </si>
-  <si>
-    <t>Государственное предприятие Водоканал Минского района</t>
-  </si>
-  <si>
-    <t>АвангардСпецМонтажПлюс</t>
-  </si>
-  <si>
-    <t>ЗАО "ПРОМЭНЕРГОСТРОЙ"</t>
-  </si>
-  <si>
-    <t>Белпочта</t>
-  </si>
-  <si>
-    <t>ИООО "Газпромнефть-Белнефтепродукт"</t>
-  </si>
-  <si>
-    <t>Водоканал</t>
-  </si>
-  <si>
-    <t>МИНСКИЙ ФИЛИАЛ РУП "БЕЛТЕЛЕКОМ"</t>
-  </si>
-  <si>
-    <t>Газпромнефть</t>
-  </si>
-  <si>
-    <t>Минский филиал РУП "БЕЛПОЧТА"</t>
-  </si>
-  <si>
-    <t>МТС</t>
-  </si>
-  <si>
-    <t>ООО "Авангардспецмонтажплюс"</t>
-  </si>
-  <si>
-    <t>Мингаз УП</t>
-  </si>
-  <si>
-    <t>ООО "ХИМИПЭКС"</t>
-  </si>
-  <si>
-    <t>Министерство Финансов РБ (ТАМ)</t>
-  </si>
-  <si>
-    <t>Производственное республиканское унитарное предприятие "МИНГАЗ"</t>
-  </si>
-  <si>
-    <t>Минскэнерго ф-л Энергосбыт</t>
-  </si>
-  <si>
-    <t>РУП"Минскэнерго" ф-л"Энергосбыт" г.Минск,РБ</t>
-  </si>
-  <si>
-    <t>Проект дилбай</t>
-  </si>
-  <si>
-    <t>Совместное общество с ограниченной ответственностью "Мобильные ТелеСистемы"</t>
-  </si>
-  <si>
-    <t>ПромЭнергоСтрой Минск</t>
-  </si>
-  <si>
-    <t>Совместное общество с ограниченной ответственностью "РЕМОНДИС Минск"</t>
-  </si>
-  <si>
-    <t>Ремондис СООО</t>
-  </si>
-  <si>
-    <t>Торговое унитарное предприятие "Проект Дилбай"</t>
-  </si>
-  <si>
-    <t>Ф-Л Белтелеком</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,219 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>53866.3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>53618.66999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50007.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>146.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>363.15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>335.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>69.34999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="n">
-        <v>50003.84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>423.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="n">
-        <v>681.1900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>604.23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1317.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1945.04</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="n">
-        <v>66.23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>95.09999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="n">
-        <v>47.96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14.34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="n">
-        <v>42.81</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>